--- a/file_phân_công/Book1.xlsx
+++ b/file_phân_công/Book1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Cybersoft\BC57\BC57_BaiTapCapstone-bootraps_LêHoàng\file_phân_công\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Cybersoft\BC57\BC57_BaiTapBoootstrap_PoochCare_LêHoàng\Capstone_Bootstrap\file_phân_công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4B9A04-4DA1-4ECC-B07A-D8FAEA837615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851BF021-A6A9-4FFD-9D1D-E7FE71B04BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0EB06848-8198-4552-A35D-EC9A72A70895}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0EB06848-8198-4552-A35D-EC9A72A70895}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -63,34 +63,43 @@
     <t>Header</t>
   </si>
   <si>
-    <t>Dev1</t>
-  </si>
-  <si>
-    <t>Dev2</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Dev A</t>
-  </si>
-  <si>
-    <t>Nhật Trường</t>
-  </si>
-  <si>
-    <t>Navbar</t>
-  </si>
-  <si>
-    <t>Submenu</t>
-  </si>
-  <si>
-    <t>Search form</t>
-  </si>
-  <si>
-    <t>Login popup</t>
-  </si>
-  <si>
     <t>Carousel</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>number count</t>
+  </si>
+  <si>
+    <t>plans</t>
+  </si>
+  <si>
+    <t>meida</t>
+  </si>
+  <si>
+    <t>testimonials</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back to top </t>
+  </si>
+  <si>
+    <t>Lê Hoàng</t>
+  </si>
+  <si>
+    <t>darkmode</t>
+  </si>
+  <si>
+    <t>Thiên Kiều</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -284,25 +293,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,7 +616,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,6 +624,7 @@
     <col min="1" max="1" width="15.36328125" customWidth="1"/>
     <col min="2" max="2" width="11.453125" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
@@ -671,262 +666,346 @@
         <v>9</v>
       </c>
       <c r="B2" s="7">
-        <v>45270</v>
+        <v>45154</v>
       </c>
       <c r="C2" s="7">
-        <v>45273</v>
+        <v>45156</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="7">
-        <v>45274</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0.95</v>
+        <v>45169</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13">
-        <v>0.5</v>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45154</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45156</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="7">
-        <v>45274</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0.5</v>
+        <v>45169</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7">
-        <v>45069</v>
+        <v>45154</v>
       </c>
       <c r="C4" s="7">
-        <v>45108</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.9</v>
+        <v>45156</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="7">
-        <v>45274</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.9</v>
+        <v>45169</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="15">
-        <v>45069</v>
-      </c>
-      <c r="C5" s="15">
-        <v>45077</v>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45154</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45156</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="7">
-        <v>45274</v>
+        <v>45169</v>
       </c>
       <c r="H5" s="8">
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15">
-        <v>45097</v>
-      </c>
-      <c r="C6" s="15">
-        <v>45105</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.9</v>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45154</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45156</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="7">
-        <v>45274</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.9</v>
+        <v>45169</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15">
-        <v>45102</v>
-      </c>
-      <c r="C7" s="15">
-        <v>45108</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.8</v>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45154</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45156</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="7">
-        <v>45274</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0.8</v>
+        <v>45169</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" s="7">
-        <v>45270</v>
+        <v>45161</v>
       </c>
       <c r="C8" s="7">
-        <v>45273</v>
+        <v>45163</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="7">
-        <v>45274</v>
+        <v>45169</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45161</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45163</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="7">
+        <v>45169</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45161</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45163</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="7">
+        <v>45169</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45161</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45163</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="7">
+        <v>45169</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45161</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45163</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="7">
+        <v>45169</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45161</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45163</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="7">
+        <v>45169</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
     </row>
